--- a/data/Dashboard.xlsx
+++ b/data/Dashboard.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tesst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Group-30\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -39,24 +39,15 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>Intended use</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>Linh</t>
   </si>
   <si>
-    <t>dh</t>
-  </si>
-  <si>
     <t>Mai</t>
   </si>
   <si>
-    <t>sh</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -82,6 +73,33 @@
   </si>
   <si>
     <t>overdue</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>province/city</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>ward/commune</t>
+  </si>
+  <si>
+    <t>Service address</t>
+  </si>
+  <si>
+    <t>residential address</t>
+  </si>
+  <si>
+    <t>intended use</t>
+  </si>
+  <si>
+    <t>tax identification numbers</t>
+  </si>
+  <si>
+    <t>18 Hoang Quoc Viet</t>
   </si>
 </sst>
 </file>
@@ -117,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,18 +418,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -418,47 +443,65 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12345</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>4354</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3523</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>452</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>452</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -482,25 +525,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -508,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -516,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
